--- a/Presupuesto empresa inicial.xlsx
+++ b/Presupuesto empresa inicial.xlsx
@@ -457,18 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -478,29 +466,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,7 +786,7 @@
   <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="5" t="s">
         <v>37</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="I3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="10" t="s">
         <v>35</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="I4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -921,9 +921,9 @@
       <c r="I5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="35"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -948,9 +948,9 @@
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -975,16 +975,16 @@
       <c r="I7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="35"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>13</v>
@@ -1002,9 +1002,9 @@
       <c r="I8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="35"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -1015,7 +1015,7 @@
       <c r="E9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1025,81 +1025,81 @@
       <c r="I9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="35"/>
-      <c r="P9" s="32"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="29"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="2:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="O11" s="31"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="K13" s="36" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="K13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="22" spans="11:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="11:13" x14ac:dyDescent="0.25">
